--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>adulation</t>
   </si>
@@ -105,12 +105,63 @@
 2/ a head glassblower
 3/ a lighting electrician on a motion-picture | television set</t>
   </si>
+  <si>
+    <t>satiety</t>
+  </si>
+  <si>
+    <t>suh-TYE-uh-tee</t>
+  </si>
+  <si>
+    <t>1/ the quality | state of being fed | gratified to | beyond capacity: surfeit, fullness
+2/ the revulsion | disgust caused by overindulgence | excess</t>
+  </si>
+  <si>
+    <t>orgulous</t>
+  </si>
+  <si>
+    <t>OR-gyuh-lus</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>lapidary</t>
+  </si>
+  <si>
+    <t>LAP-uh-dair-ee</t>
+  </si>
+  <si>
+    <t>1/ a cutter, polisher, or engraver of precious stones usually other than diamonds
+2/ the art of cutting gems</t>
+  </si>
+  <si>
+    <t>circuitous</t>
+  </si>
+  <si>
+    <t>ser-KYOO-uh-tus</t>
+  </si>
+  <si>
+    <t>1/ having a circular | winding course
+2/ not being forthright | direct in language | action</t>
+  </si>
+  <si>
+    <t>https://www.merriam-webster.com/word-of-the-day/calendar</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>RASH</t>
+  </si>
+  <si>
+    <t>marked by | proceeding from undue haste | lack of deliberation | caution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,10 +218,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,8 +231,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,108 +529,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43331</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43330</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43329</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43328</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43327</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43326</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43325</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43324</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43323</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43324</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>adulation</t>
   </si>
@@ -155,6 +155,54 @@
   </si>
   <si>
     <t>marked by | proceeding from undue haste | lack of deliberation | caution</t>
+  </si>
+  <si>
+    <t>imperturbable</t>
+  </si>
+  <si>
+    <t>im-per-TER-buh-bul</t>
+  </si>
+  <si>
+    <t>marked by extreme calm, impassivity, and steadiness: serene</t>
+  </si>
+  <si>
+    <t>weald</t>
+  </si>
+  <si>
+    <t>WEELD</t>
+  </si>
+  <si>
+    <t>1/ a heavily wooded area
+2/ a wild | uncultivated usually upland region</t>
+  </si>
+  <si>
+    <t>debunk</t>
+  </si>
+  <si>
+    <t>dee-BUNK</t>
+  </si>
+  <si>
+    <t>to expose the sham | falseness of</t>
+  </si>
+  <si>
+    <t>FUN-juh-bul</t>
+  </si>
+  <si>
+    <t>fungible</t>
+  </si>
+  <si>
+    <t>1/ being of such a nature that one part or quantity may be replaced by another equal part or quantity in the satisfication of an obligation
+2/ interchangeable
+3/ flexible</t>
+  </si>
+  <si>
+    <t>mufti</t>
+  </si>
+  <si>
+    <t>MUFF-tee</t>
+  </si>
+  <si>
+    <t>ordinary dress as distinguished from that denoting an occupation or station; especially: civilian clothes when worn by a person in the armed forces</t>
   </si>
 </sst>
 </file>
@@ -513,11 +561,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,7 +598,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43331</v>
+        <v>43332</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -569,155 +615,240 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
+        <v>43331</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43330</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43329</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43328</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>43327</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>43326</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>43325</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43324</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <v>43324</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43323</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43324</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43322</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43321</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43320</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43319</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43318</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>adulation</t>
   </si>
@@ -203,6 +203,117 @@
   </si>
   <si>
     <t>ordinary dress as distinguished from that denoting an occupation or station; especially: civilian clothes when worn by a person in the armed forces</t>
+  </si>
+  <si>
+    <t>cerulean</t>
+  </si>
+  <si>
+    <t>suh-ROO-lee-un</t>
+  </si>
+  <si>
+    <t>resembling the blue of the sky</t>
+  </si>
+  <si>
+    <t>sự thoả mãn</t>
+  </si>
+  <si>
+    <t>sự thích nghi</t>
+  </si>
+  <si>
+    <t>không thể lay chuyển</t>
+  </si>
+  <si>
+    <t>cản trở</t>
+  </si>
+  <si>
+    <t>bay hơi</t>
+  </si>
+  <si>
+    <t>lãnh đạm</t>
+  </si>
+  <si>
+    <t>người già cả</t>
+  </si>
+  <si>
+    <t>vô cùng</t>
+  </si>
+  <si>
+    <t>thợ mài</t>
+  </si>
+  <si>
+    <t>quanh co</t>
+  </si>
+  <si>
+    <t>phát ban</t>
+  </si>
+  <si>
+    <t>rừng hoang dã</t>
+  </si>
+  <si>
+    <t>vạch trần</t>
+  </si>
+  <si>
+    <t>có thể thay thế được</t>
+  </si>
+  <si>
+    <t>giáo sĩ Hồi giáo
+(quân sự) quần áo thường</t>
+  </si>
+  <si>
+    <t>xanh da trời</t>
+  </si>
+  <si>
+    <t>bereft</t>
+  </si>
+  <si>
+    <t>bih-REFT</t>
+  </si>
+  <si>
+    <t>1/ deprived or robbed of the possession or use of sth - usually used with of
+2/ lacking sth needed, wanted, or expected - used with of
+3/ suffering the death of a loved one : bereaved</t>
+  </si>
+  <si>
+    <t>lấy mất</t>
+  </si>
+  <si>
+    <t>slimsy</t>
+  </si>
+  <si>
+    <t>SLIM-zee</t>
+  </si>
+  <si>
+    <t>flimsy, frail</t>
+  </si>
+  <si>
+    <t>mỏng manh</t>
+  </si>
+  <si>
+    <t>pacify</t>
+  </si>
+  <si>
+    <t>PASS-uh-fye</t>
+  </si>
+  <si>
+    <t>1/ a : to allay the anger or agitation of : soothe
+b : appease , propitiate
+2/ a : to restore to a tranquil state : settle
+b : to reduce to a submissive state : subdue</t>
+  </si>
+  <si>
+    <t>bình định</t>
+  </si>
+  <si>
+    <t>agog</t>
+  </si>
+  <si>
+    <t>uh-GAHG</t>
+  </si>
+  <si>
+    <t>sốt ruột</t>
+  </si>
+  <si>
+    <t>full of intense interest or excitement : eager</t>
   </si>
 </sst>
 </file>
@@ -279,7 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,25 +674,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="91" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -596,262 +717,410 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <v>43333</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43332</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43331</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43330</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43329</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43328</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43327</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>43326</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43325</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43324</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43323</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>43322</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43322</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43321</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43320</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43319</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43318</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43317</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43316</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43315</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43314</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>

--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>adulation</t>
   </si>
@@ -315,22 +315,82 @@
   <si>
     <t>full of intense interest or excitement : eager</t>
   </si>
+  <si>
+    <t>exigent</t>
+  </si>
+  <si>
+    <t>EK-suh-junt</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>1/ requiring immediate aid or action
+2/ requiring or calling for much (demanding)</t>
+  </si>
+  <si>
+    <t>khẩn cấp</t>
+  </si>
+  <si>
+    <t>risorgimento</t>
+  </si>
+  <si>
+    <t>ree-zor-jih-MEN-toh</t>
+  </si>
+  <si>
+    <t>1/ often capitalized: the 19th century movement for Italian political unity
+2/ a time of renewal or renaissance: revival</t>
+  </si>
+  <si>
+    <t>phục hưng</t>
+  </si>
+  <si>
+    <t>musket</t>
+  </si>
+  <si>
+    <t>MUSS-kut</t>
+  </si>
+  <si>
+    <t>a heavy large-caliber muzzle-loading usually smoothbore shoulder firearm; broadly: a shoulder gun carried by infantry</t>
+  </si>
+  <si>
+    <t>súng ngắn</t>
+  </si>
+  <si>
+    <t>tempestuous</t>
+  </si>
+  <si>
+    <t>tem-PESS-chuh-wus</t>
+  </si>
+  <si>
+    <t>of, relating to, or resembling a violent storm: turbulent, stormy</t>
+  </si>
+  <si>
+    <t>dữ dội như dông bão</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>GLAHSS</t>
+  </si>
+  <si>
+    <t>1/ a : to provide a brief explanation or interpretation for : explain, define
+b : interpret
+2/ to dispose of by false or preverse interpretation</t>
+  </si>
+  <si>
+    <t>diễn giải</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,18 +439,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,436 +744,539 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43333</v>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>43332</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>43331</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>43329</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>43328</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>43327</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>43326</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>43325</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43324</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>43323</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43322</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43321</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>43320</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>43319</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>43318</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>43317</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43316</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43316</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>43315</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>43314</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43310</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>adulation</t>
   </si>
@@ -381,6 +381,80 @@
   </si>
   <si>
     <t>diễn giải</t>
+  </si>
+  <si>
+    <t>curfew</t>
+  </si>
+  <si>
+    <t>KER-fyoo</t>
+  </si>
+  <si>
+    <t>1/ The sounding of a bell at evening
+2/ a : a regulation enjoining the withdrawal of usually specified persons (such as juveniles | military personel) from the streets or the closing of business establishment or places of assembly at a stated hour
+b : a signal to announce the beginning of a curfew
+c : the hour at which a curfew becomes effective
+d : the period during which a curfew is in effect</t>
+  </si>
+  <si>
+    <t>Sự giới nghiêm</t>
+  </si>
+  <si>
+    <t>oblige</t>
+  </si>
+  <si>
+    <t>uh-BLYJE</t>
+  </si>
+  <si>
+    <t>1/ to constrain by physical, moral, or legal force or by the exigencies of circumstance
+2/ a : to put in one's debt by a favor or service
+b : to do a favor for
+c : to do something as or as if as a favor</t>
+  </si>
+  <si>
+    <t>bắt buộc, giúp đỡ</t>
+  </si>
+  <si>
+    <t>marshal</t>
+  </si>
+  <si>
+    <t>MAR-shul</t>
+  </si>
+  <si>
+    <t>nguyên soái, cảnh sát trưởng</t>
+  </si>
+  <si>
+    <t>1/ a : a high offical in the household of a medieval king, prince, or noble originally having charge of the cavalry but later usually in command of the military forces
+b : a person who arranges and directs the ceremonial aspects of a gathering
+2/ a : field marshal
+b : a general officer of the highest military rank
+3/ a : an officer having charge of prisoners
+b : a ministeral officer appointed for a judicial district (U.S) to execute the process of the courts and perform various duties similar to those of a sheriff
+c : a city law officer entrusted with particular duties
+d : the administrative head of a city police department or fire department</t>
+  </si>
+  <si>
+    <t>jaunty</t>
+  </si>
+  <si>
+    <t>JAWN-tee</t>
+  </si>
+  <si>
+    <t>vui nhộn, hoạt bát</t>
+  </si>
+  <si>
+    <t>sprightly in manner or appearance: lively</t>
+  </si>
+  <si>
+    <t>puissant</t>
+  </si>
+  <si>
+    <t>PWISS-unt</t>
+  </si>
+  <si>
+    <t>of great force or vigor : strong, powerful</t>
+  </si>
+  <si>
+    <t>hùng mạnh, hùng cường</t>
   </si>
 </sst>
 </file>
@@ -441,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -452,6 +526,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,504 +857,604 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>43338</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43337</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43334</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>43333</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>43332</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43331</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43330</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43329</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>43328</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43327</v>
+        <v>43331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43326</v>
+        <v>43330</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43325</v>
+        <v>43329</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43324</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43323</v>
+        <v>43327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43322</v>
+        <v>43326</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43321</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43324</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43320</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43319</v>
+        <v>43323</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43318</v>
+        <v>43322</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43317</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43316</v>
+        <v>43320</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43317</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43316</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>43315</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43314</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>43313</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>43312</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43311</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>43310</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43309</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/English-Vocabulary.xlsx
+++ b/English-Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tien\Projects\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Nguyen\Desktop\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>adulation</t>
   </si>
@@ -455,6 +455,71 @@
   </si>
   <si>
     <t>hùng mạnh, hùng cường</t>
+  </si>
+  <si>
+    <t>rubric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROO-brik</t>
+  </si>
+  <si>
+    <t>đề mục</t>
+  </si>
+  <si>
+    <t>1/ an authoritative rule; especially: a rule for conduct of a liturgical service
+2/ heading, title; also : class, category
+3/ an explanatory or introductory commentary: gloss, specifically: an editorial interpolation
+4/ an established rule, tradition, or custom
+5/ a guide listing specific criteria for grading or scoring academic papers, projects, or tests</t>
+  </si>
+  <si>
+    <t>lodestar</t>
+  </si>
+  <si>
+    <t>LOHD-stahr</t>
+  </si>
+  <si>
+    <t>one that serves as an inspiration, model, or guide</t>
+  </si>
+  <si>
+    <t>mục đích, sao bắc cực</t>
+  </si>
+  <si>
+    <t>taciturn</t>
+  </si>
+  <si>
+    <t>TASS-uh-tern</t>
+  </si>
+  <si>
+    <t>temperamentally disinclined to talk</t>
+  </si>
+  <si>
+    <t>ít nói, lầm lì</t>
+  </si>
+  <si>
+    <t>buttonhole</t>
+  </si>
+  <si>
+    <t>BUT-un-hohl</t>
+  </si>
+  <si>
+    <t>to detain in conversation by or as if by holding on to the outer garments of</t>
+  </si>
+  <si>
+    <t>níu lại</t>
+  </si>
+  <si>
+    <t>duress</t>
+  </si>
+  <si>
+    <t>dur-RESS</t>
+  </si>
+  <si>
+    <t>1/ forcible restraint or restriction
+2/ compulsion by thread; especially: unlawful constraint</t>
+  </si>
+  <si>
+    <t>cầm tù, ép buộc</t>
   </si>
 </sst>
 </file>
@@ -502,11 +567,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -515,21 +609,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -811,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,638 +933,738 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43342</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>43341</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43340</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43339</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43338</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E8" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F8" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>43337</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F9" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43336</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43335</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F11" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="12" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43334</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43333</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="14" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43332</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43331</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>43330</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F16" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>43329</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>43328</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>43327</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F19" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>43326</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>43325</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F21" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>43324</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>43323</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F23" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>43322</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>43321</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F25" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="26" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>43320</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="27" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>43319</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F27" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="28" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>43318</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F28" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="29" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>43317</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F29" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="30" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>43316</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F30" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="31" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>43315</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E31" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F31" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="32" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>43314</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D32" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F32" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="33" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>43313</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D33" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E33" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F33" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="34" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>43312</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F34" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="35" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>43311</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D35" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F35" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="36" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>43310</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F36" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="37" spans="1:6" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>43309</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D37" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F37" s="19" t="s">
         <v>113</v>
       </c>
     </row>
